--- a/data/lookup.xlsx
+++ b/data/lookup.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hmkang\문서관련(TeX)\excel\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mystat\excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A5CF0B-9DCC-4FE5-9ED4-3BAD674C8FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
+    <workbookView xWindow="-25320" yWindow="330" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="성적" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -241,7 +242,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,12 +260,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -296,17 +315,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,11 +613,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -601,370 +626,370 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>99</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="E4" s="2">
+      <c r="C4" s="4"/>
+      <c r="E4" s="5">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>95</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="E5" s="2">
+      <c r="C5" s="4"/>
+      <c r="E5" s="5">
         <v>60</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>87</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="2">
+      <c r="C6" s="4"/>
+      <c r="E6" s="5">
         <v>70</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>60</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="E7" s="2">
+      <c r="C7" s="4"/>
+      <c r="E7" s="5">
         <v>80</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>59</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="E8" s="2">
+      <c r="C8" s="4"/>
+      <c r="E8" s="5">
         <v>90</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>88</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>68</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>90</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>79</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>56</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>81</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>74</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>66</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <v>68</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <v>90</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <v>83</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="4">
         <v>41</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <v>88</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="4">
         <v>78</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="4">
         <v>80</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="4">
         <v>94</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <v>98</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="4">
         <v>71</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="4">
         <v>63</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="4">
         <v>76</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="4">
         <v>90</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="4">
         <v>65</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="4">
         <v>84</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="4">
         <v>80</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="4">
         <v>76</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="4">
         <v>88</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="E4:H8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E4:H8">
     <sortCondition ref="E4"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
